--- a/data/Device_Report_Template.xlsx
+++ b/data/Device_Report_Template.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lightriver-my.sharepoint.com/personal/zsimino_lightriver_com/Documents/Documents/Programs/network_inventory/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lightriver-my.sharepoint.com/personal/zsimino_lightriver_com/Documents/Documents/GitHub/LAMIS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="359" documentId="8_{9CB5FA86-B0E6-4949-A545-39C05F0C244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC6245D0-E2A4-4598-9F4D-AF946B0E0DE5}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="8_{9CB5FA86-B0E6-4949-A545-39C05F0C244E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE9FA0D2-4EE2-4388-947A-70D644AC4DEF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1CE12A3A-5550-47E4-8A53-A8AE70C33086}"/>
+    <workbookView xWindow="33336" yWindow="1968" windowWidth="23040" windowHeight="8880" xr2:uid="{1CE12A3A-5550-47E4-8A53-A8AE70C33086}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer-project" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId1"/>
+    <sheet name="System Name" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Customer:</t>
   </si>
@@ -82,12 +83,36 @@
   <si>
     <t>Customer PO/Sale Order:</t>
   </si>
+  <si>
+    <t>Device Summary</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>IP Address</t>
+  </si>
+  <si>
+    <t>Device Name</t>
+  </si>
+  <si>
+    <t>System Type</t>
+  </si>
+  <si>
+    <t>Sales Order</t>
+  </si>
+  <si>
+    <t>Customer PO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +172,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +206,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -510,6 +555,112 @@
       </top>
       <bottom style="medium">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -580,64 +731,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1022,45 +1239,1682 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF54F37E-6345-4CA4-B530-D8C37ACCD1DE}">
+  <dimension ref="B1:O101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="39"/>
+    </row>
+    <row r="3" spans="2:15" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="40"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="41"/>
+    </row>
+    <row r="4" spans="2:15" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="44"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="45"/>
+      <c r="J5" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="68"/>
+      <c r="L5" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="72"/>
+      <c r="N5" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="72"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="74"/>
+    </row>
+    <row r="7" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="34"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="34"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="34"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="34"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="34"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="34"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="33"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="34"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="34"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="33"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="34"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="33"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="34"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="33"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="34"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="34"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="33"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="34"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="34"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="34"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="33"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="34"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="34"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="33"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="34"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="33"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="34"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="33"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="34"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="33"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="34"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="33"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="34"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="33"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="34"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="33"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="34"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B48" s="33"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="34"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="34"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B50" s="33"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="34"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="33"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="34"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="33"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="34"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="33"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="34"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="34"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="33"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="34"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="33"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="34"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="33"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="34"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B57" s="33"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="34"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B58" s="33"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="34"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B59" s="33"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="34"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B60" s="33"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="34"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="34"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B61" s="33"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="34"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B62" s="33"/>
+      <c r="C62" s="34"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="34"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B63" s="33"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="34"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="34"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B64" s="33"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="34"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="34"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="34"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="34"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="34"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B65" s="33"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="33"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="34"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="34"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="34"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="34"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B67" s="33"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="34"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="34"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="34"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B68" s="33"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="34"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="34"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="34"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="34"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="34"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B69" s="33"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="34"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="34"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="34"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B70" s="33"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="34"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="34"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B71" s="33"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="34"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B72" s="33"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="34"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B73" s="33"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="34"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B74" s="33"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="34"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="33"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="34"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="34"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="34"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B76" s="33"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="34"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B77" s="33"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="34"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="34"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="34"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="34"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B78" s="33"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="34"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B79" s="33"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="34"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="34"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="34"/>
+      <c r="L79" s="33"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="33"/>
+      <c r="O79" s="34"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B80" s="33"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="33"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="33"/>
+      <c r="O80" s="34"/>
+    </row>
+    <row r="81" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B81" s="33"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="33"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="33"/>
+      <c r="O81" s="34"/>
+    </row>
+    <row r="82" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="34"/>
+      <c r="L82" s="33"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="33"/>
+      <c r="O82" s="34"/>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B83" s="33"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="34"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="34"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="34"/>
+    </row>
+    <row r="84" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B84" s="33"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="34"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="34"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="34"/>
+    </row>
+    <row r="85" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B85" s="33"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="33"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="33"/>
+      <c r="O85" s="34"/>
+    </row>
+    <row r="86" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B86" s="33"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="34"/>
+    </row>
+    <row r="87" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B87" s="33"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="33"/>
+      <c r="O87" s="34"/>
+    </row>
+    <row r="88" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B88" s="33"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="33"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="33"/>
+      <c r="O88" s="34"/>
+    </row>
+    <row r="89" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B89" s="33"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="34"/>
+    </row>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B90" s="33"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="33"/>
+      <c r="O90" s="34"/>
+    </row>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B91" s="33"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="34"/>
+      <c r="L91" s="33"/>
+      <c r="M91" s="34"/>
+      <c r="N91" s="33"/>
+      <c r="O91" s="34"/>
+    </row>
+    <row r="92" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B92" s="33"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="34"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="33"/>
+      <c r="O92" s="34"/>
+    </row>
+    <row r="93" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B93" s="33"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="34"/>
+      <c r="L93" s="33"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="33"/>
+      <c r="O93" s="34"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B94" s="33"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="34"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="33"/>
+      <c r="O94" s="34"/>
+    </row>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B95" s="33"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="34"/>
+      <c r="L95" s="33"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="33"/>
+      <c r="O95" s="34"/>
+    </row>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B96" s="33"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="33"/>
+      <c r="M96" s="34"/>
+      <c r="N96" s="33"/>
+      <c r="O96" s="34"/>
+    </row>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B97" s="33"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="34"/>
+      <c r="L97" s="33"/>
+      <c r="M97" s="34"/>
+      <c r="N97" s="33"/>
+      <c r="O97" s="34"/>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B98" s="33"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="34"/>
+      <c r="L98" s="33"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="33"/>
+      <c r="O98" s="34"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B99" s="33"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="34"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="34"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="34"/>
+    </row>
+    <row r="100" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="35"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="35"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="35"/>
+      <c r="O100" s="36"/>
+    </row>
+    <row r="101" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="D5:E6"/>
+    <mergeCell ref="F5:G6"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="B2:O4"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="L5:M6"/>
+    <mergeCell ref="N5:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A4540E-060F-4722-81FE-D7263FE19264}">
   <dimension ref="B1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+    <sheetView zoomScale="98" workbookViewId="0">
       <selection activeCell="B8" sqref="B8:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="27.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.81640625" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="2" max="5" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="40.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+    </row>
+    <row r="3" spans="2:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+    </row>
+    <row r="4" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1071,75 +2925,75 @@
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
       <c r="E6" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="21"/>
     </row>
-    <row r="7" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="45"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
-    </row>
-    <row r="9" spans="2:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="36" t="s">
+    <row r="8" spans="2:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+    </row>
+    <row r="9" spans="2:6" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="36" t="s">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="38"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
@@ -1156,553 +3010,553 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="23"/>
       <c r="F24" s="23"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="24"/>
       <c r="F37" s="24"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="24"/>
       <c r="F38" s="24"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="24"/>
       <c r="F40" s="24"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="24"/>
       <c r="F43" s="24"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="24"/>
       <c r="F44" s="24"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="24"/>
       <c r="F45" s="24"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="24"/>
       <c r="F47" s="24"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="24"/>
       <c r="F48" s="24"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="24"/>
       <c r="F51" s="24"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="24"/>
       <c r="F52" s="24"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="24"/>
       <c r="F55" s="24"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="24"/>
       <c r="F56" s="24"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="24"/>
       <c r="F57" s="24"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="24"/>
       <c r="F58" s="24"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="24"/>
       <c r="F60" s="24"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="24"/>
       <c r="F67" s="24"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="24"/>
       <c r="F68" s="24"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="24"/>
       <c r="F69" s="24"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="24"/>
       <c r="F70" s="24"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="24"/>
       <c r="F71" s="24"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="24"/>
       <c r="F72" s="24"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="24"/>
       <c r="F73" s="24"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="24"/>
       <c r="F74" s="24"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="24"/>
       <c r="F75" s="24"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="23"/>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
       <c r="E76" s="24"/>
       <c r="F76" s="24"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="23"/>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
       <c r="E77" s="24"/>
       <c r="F77" s="24"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="23"/>
       <c r="C78" s="4"/>
       <c r="D78" s="5"/>
       <c r="E78" s="24"/>
       <c r="F78" s="24"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="23"/>
       <c r="C79" s="4"/>
       <c r="D79" s="5"/>
       <c r="E79" s="24"/>
       <c r="F79" s="24"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="23"/>
       <c r="C80" s="4"/>
       <c r="D80" s="5"/>
       <c r="E80" s="24"/>
       <c r="F80" s="24"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="23"/>
       <c r="C81" s="4"/>
       <c r="D81" s="5"/>
       <c r="E81" s="24"/>
       <c r="F81" s="24"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="23"/>
       <c r="C82" s="4"/>
       <c r="D82" s="5"/>
       <c r="E82" s="24"/>
       <c r="F82" s="24"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="23"/>
       <c r="C83" s="4"/>
       <c r="D83" s="5"/>
       <c r="E83" s="24"/>
       <c r="F83" s="24"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="23"/>
       <c r="C84" s="4"/>
       <c r="D84" s="5"/>
       <c r="E84" s="24"/>
       <c r="F84" s="24"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="23"/>
       <c r="C85" s="4"/>
       <c r="D85" s="5"/>
       <c r="E85" s="24"/>
       <c r="F85" s="24"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="23"/>
       <c r="C86" s="4"/>
       <c r="D86" s="5"/>
       <c r="E86" s="24"/>
       <c r="F86" s="24"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="23"/>
       <c r="C87" s="4"/>
       <c r="D87" s="5"/>
       <c r="E87" s="24"/>
       <c r="F87" s="24"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="23"/>
       <c r="C88" s="4"/>
       <c r="D88" s="5"/>
       <c r="E88" s="24"/>
       <c r="F88" s="24"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="5"/>
       <c r="E89" s="24"/>
       <c r="F89" s="24"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="5"/>
       <c r="E90" s="24"/>
       <c r="F90" s="24"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="5"/>
       <c r="E91" s="24"/>
       <c r="F91" s="24"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="5"/>
       <c r="E92" s="24"/>
       <c r="F92" s="24"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="1"/>
